--- a/artfynd/A 33659-2023.xlsx
+++ b/artfynd/A 33659-2023.xlsx
@@ -2309,10 +2309,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112375515</v>
+        <v>112381644</v>
       </c>
       <c r="B15" t="n">
-        <v>77637</v>
+        <v>89557</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2325,37 +2325,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>230405</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518198</v>
+        <v>517965</v>
       </c>
       <c r="R15" t="n">
-        <v>7181286</v>
+        <v>7181173</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2385,24 +2383,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2420,10 +2447,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112381644</v>
+        <v>112382121</v>
       </c>
       <c r="B16" t="n">
-        <v>89557</v>
+        <v>89535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2436,35 +2463,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>517965</v>
+        <v>517844</v>
       </c>
       <c r="R16" t="n">
-        <v>7181173</v>
+        <v>7181358</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2496,7 +2523,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2506,7 +2533,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2558,10 +2585,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112382121</v>
+        <v>112375515</v>
       </c>
       <c r="B17" t="n">
-        <v>89535</v>
+        <v>77637</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2574,35 +2601,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>517844</v>
+        <v>518198</v>
       </c>
       <c r="R17" t="n">
-        <v>7181358</v>
+        <v>7181286</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2632,53 +2661,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112375286</v>
+        <v>112379312</v>
       </c>
       <c r="B22" t="n">
-        <v>77637</v>
+        <v>90221</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3179,31 +3179,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>230405</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
@@ -3243,24 +3241,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3278,10 +3305,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112379312</v>
+        <v>112375286</v>
       </c>
       <c r="B23" t="n">
-        <v>90221</v>
+        <v>77637</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3290,29 +3317,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>230405</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
@@ -3352,53 +3381,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>

--- a/artfynd/A 33659-2023.xlsx
+++ b/artfynd/A 33659-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112360935</v>
+        <v>112360600</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>517977</v>
+        <v>517911</v>
       </c>
       <c r="R2" t="n">
-        <v>7181358</v>
+        <v>7181235</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -803,7 +803,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112359858</v>
+        <v>112359874</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518150</v>
+        <v>518071</v>
       </c>
       <c r="R3" t="n">
-        <v>7181081</v>
+        <v>7181080</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,7 +926,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112360699</v>
+        <v>112359858</v>
       </c>
       <c r="B4" t="n">
         <v>56430</v>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>517871</v>
+        <v>518150</v>
       </c>
       <c r="R4" t="n">
-        <v>7181203</v>
+        <v>7181081</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1049,7 +1049,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112359874</v>
+        <v>112360882</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518071</v>
+        <v>517963</v>
       </c>
       <c r="R5" t="n">
-        <v>7181080</v>
+        <v>7181358</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112360565</v>
+        <v>112360699</v>
       </c>
       <c r="B6" t="n">
         <v>56430</v>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>517939</v>
+        <v>517871</v>
       </c>
       <c r="R6" t="n">
-        <v>7181204</v>
+        <v>7181203</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Både färska och äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112360882</v>
+        <v>112361027</v>
       </c>
       <c r="B7" t="n">
         <v>56430</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>517963</v>
+        <v>518175</v>
       </c>
       <c r="R7" t="n">
-        <v>7181358</v>
+        <v>7181267</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112361027</v>
+        <v>112360935</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518175</v>
+        <v>517977</v>
       </c>
       <c r="R8" t="n">
-        <v>7181267</v>
+        <v>7181358</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112360956</v>
+        <v>112360565</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518056</v>
+        <v>517939</v>
       </c>
       <c r="R9" t="n">
-        <v>7181359</v>
+        <v>7181204</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Både färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112360000</v>
+        <v>112360782</v>
       </c>
       <c r="B10" t="n">
         <v>56430</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517952</v>
+        <v>517898</v>
       </c>
       <c r="R10" t="n">
-        <v>7181173</v>
+        <v>7181203</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1787,7 +1787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112360600</v>
+        <v>112360000</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517911</v>
+        <v>517952</v>
       </c>
       <c r="R11" t="n">
-        <v>7181235</v>
+        <v>7181173</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112360782</v>
+        <v>112360956</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517898</v>
+        <v>518056</v>
       </c>
       <c r="R12" t="n">
-        <v>7181203</v>
+        <v>7181359</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2033,10 +2033,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112380266</v>
+        <v>112382121</v>
       </c>
       <c r="B13" t="n">
-        <v>89485</v>
+        <v>89549</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2049,35 +2049,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518031</v>
+        <v>517844</v>
       </c>
       <c r="R13" t="n">
-        <v>7181142</v>
+        <v>7181358</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2171,10 +2171,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112382054</v>
+        <v>112375371</v>
       </c>
       <c r="B14" t="n">
-        <v>89485</v>
+        <v>77651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2187,35 +2187,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>230405</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>517831</v>
+        <v>517859</v>
       </c>
       <c r="R14" t="n">
-        <v>7181296</v>
+        <v>7181249</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2245,53 +2247,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2309,10 +2282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112381644</v>
+        <v>112380266</v>
       </c>
       <c r="B15" t="n">
-        <v>89557</v>
+        <v>89499</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2325,21 +2298,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>112</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2350,10 +2323,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>517965</v>
+        <v>518031</v>
       </c>
       <c r="R15" t="n">
-        <v>7181173</v>
+        <v>7181142</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2385,7 +2358,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2395,7 +2368,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2447,10 +2420,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112382121</v>
+        <v>112375418</v>
       </c>
       <c r="B16" t="n">
-        <v>89535</v>
+        <v>77651</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2463,35 +2436,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>517844</v>
+        <v>517913</v>
       </c>
       <c r="R16" t="n">
-        <v>7181358</v>
+        <v>7181387</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2521,53 +2496,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2585,10 +2531,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112375515</v>
+        <v>112375286</v>
       </c>
       <c r="B17" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2628,10 +2574,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518198</v>
+        <v>518066</v>
       </c>
       <c r="R17" t="n">
-        <v>7181286</v>
+        <v>7181133</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2696,10 +2642,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112381914</v>
+        <v>112381644</v>
       </c>
       <c r="B18" t="n">
-        <v>89535</v>
+        <v>89571</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2712,35 +2658,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>517911</v>
+        <v>517965</v>
       </c>
       <c r="R18" t="n">
-        <v>7181235</v>
+        <v>7181173</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2834,10 +2780,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112375418</v>
+        <v>112375476</v>
       </c>
       <c r="B19" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2877,10 +2823,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>517913</v>
+        <v>517971</v>
       </c>
       <c r="R19" t="n">
-        <v>7181387</v>
+        <v>7181355</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2945,10 +2891,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112375476</v>
+        <v>112381914</v>
       </c>
       <c r="B20" t="n">
-        <v>77637</v>
+        <v>89549</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2961,37 +2907,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>517971</v>
+        <v>517911</v>
       </c>
       <c r="R20" t="n">
-        <v>7181355</v>
+        <v>7181235</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3021,24 +2965,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3056,10 +3029,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112375371</v>
+        <v>112379312</v>
       </c>
       <c r="B21" t="n">
-        <v>77637</v>
+        <v>90235</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3068,41 +3041,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>230405</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>517859</v>
+        <v>518066</v>
       </c>
       <c r="R21" t="n">
-        <v>7181249</v>
+        <v>7181133</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3132,24 +3103,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112379312</v>
+        <v>112375515</v>
       </c>
       <c r="B22" t="n">
-        <v>90221</v>
+        <v>77651</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3179,39 +3179,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>230405</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>518066</v>
+        <v>518198</v>
       </c>
       <c r="R22" t="n">
-        <v>7181133</v>
+        <v>7181286</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3241,53 +3243,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3305,10 +3278,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112375286</v>
+        <v>112382054</v>
       </c>
       <c r="B23" t="n">
-        <v>77637</v>
+        <v>89499</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3321,37 +3294,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>230405</v>
+        <v>112</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>518066</v>
+        <v>517831</v>
       </c>
       <c r="R23" t="n">
-        <v>7181133</v>
+        <v>7181296</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3381,24 +3352,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112359774</v>
+        <v>112359584</v>
       </c>
       <c r="B24" t="n">
         <v>56430</v>
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>518269</v>
+        <v>518347</v>
       </c>
       <c r="R24" t="n">
-        <v>7181175</v>
+        <v>7181299</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3539,7 +3539,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112359584</v>
+        <v>112359677</v>
       </c>
       <c r="B25" t="n">
         <v>56430</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>518347</v>
+        <v>518387</v>
       </c>
       <c r="R25" t="n">
-        <v>7181299</v>
+        <v>7181238</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3662,7 +3662,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112359401</v>
+        <v>112359774</v>
       </c>
       <c r="B26" t="n">
         <v>56430</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>518241</v>
+        <v>518269</v>
       </c>
       <c r="R26" t="n">
-        <v>7181299</v>
+        <v>7181175</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112359677</v>
+        <v>112359401</v>
       </c>
       <c r="B27" t="n">
         <v>56430</v>
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>518387</v>
+        <v>518241</v>
       </c>
       <c r="R27" t="n">
-        <v>7181238</v>
+        <v>7181299</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3908,10 +3908,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112377185</v>
+        <v>112374902</v>
       </c>
       <c r="B28" t="n">
-        <v>90221</v>
+        <v>77651</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3920,39 +3920,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>230405</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>518346</v>
+        <v>518373</v>
       </c>
       <c r="R28" t="n">
-        <v>7181224</v>
+        <v>7181262</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3982,53 +3984,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4046,10 +4019,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112375075</v>
+        <v>112375543</v>
       </c>
       <c r="B29" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4089,10 +4062,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>518408</v>
+        <v>518245</v>
       </c>
       <c r="R29" t="n">
-        <v>7181227</v>
+        <v>7181283</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4157,10 +4130,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112374361</v>
+        <v>112374338</v>
       </c>
       <c r="B30" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4268,10 +4241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112374902</v>
+        <v>112374377</v>
       </c>
       <c r="B31" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4311,10 +4284,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>518373</v>
+        <v>518273</v>
       </c>
       <c r="R31" t="n">
-        <v>7181262</v>
+        <v>7181305</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4379,10 +4352,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112377569</v>
+        <v>112375258</v>
       </c>
       <c r="B32" t="n">
-        <v>89535</v>
+        <v>77651</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4395,35 +4368,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>518414</v>
+        <v>518263</v>
       </c>
       <c r="R32" t="n">
-        <v>7181238</v>
+        <v>7181219</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4453,53 +4428,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4517,10 +4463,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112374377</v>
+        <v>112377185</v>
       </c>
       <c r="B33" t="n">
-        <v>77637</v>
+        <v>90235</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4529,41 +4475,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>230405</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>518273</v>
+        <v>518346</v>
       </c>
       <c r="R33" t="n">
-        <v>7181305</v>
+        <v>7181224</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4593,24 +4537,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4628,10 +4601,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112374546</v>
+        <v>112377569</v>
       </c>
       <c r="B34" t="n">
-        <v>77637</v>
+        <v>89549</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4644,37 +4617,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>518355</v>
+        <v>518414</v>
       </c>
       <c r="R34" t="n">
-        <v>7181301</v>
+        <v>7181238</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4704,24 +4675,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112379024</v>
+        <v>112375105</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>77651</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4755,35 +4755,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>230405</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>518269</v>
+        <v>518346</v>
       </c>
       <c r="R35" t="n">
-        <v>7181175</v>
+        <v>7181224</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4813,53 +4815,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4877,10 +4850,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112375543</v>
+        <v>112374546</v>
       </c>
       <c r="B36" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4920,10 +4893,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>518245</v>
+        <v>518355</v>
       </c>
       <c r="R36" t="n">
-        <v>7181283</v>
+        <v>7181301</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4988,10 +4961,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112375258</v>
+        <v>112379024</v>
       </c>
       <c r="B37" t="n">
-        <v>77637</v>
+        <v>89571</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5004,37 +4977,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>230405</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518263</v>
+        <v>518269</v>
       </c>
       <c r="R37" t="n">
-        <v>7181219</v>
+        <v>7181175</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5064,24 +5035,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5099,10 +5099,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112375105</v>
+        <v>112375075</v>
       </c>
       <c r="B38" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518346</v>
+        <v>518408</v>
       </c>
       <c r="R38" t="n">
-        <v>7181224</v>
+        <v>7181227</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 33659-2023.xlsx
+++ b/artfynd/A 33659-2023.xlsx
@@ -803,7 +803,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112359874</v>
+        <v>112360956</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518071</v>
+        <v>518056</v>
       </c>
       <c r="R3" t="n">
-        <v>7181080</v>
+        <v>7181359</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1049,7 +1049,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112360882</v>
+        <v>112361027</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>517963</v>
+        <v>518175</v>
       </c>
       <c r="R5" t="n">
-        <v>7181358</v>
+        <v>7181267</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112360699</v>
+        <v>112360000</v>
       </c>
       <c r="B6" t="n">
         <v>56430</v>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>517871</v>
+        <v>517952</v>
       </c>
       <c r="R6" t="n">
-        <v>7181203</v>
+        <v>7181173</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112361027</v>
+        <v>112360882</v>
       </c>
       <c r="B7" t="n">
         <v>56430</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518175</v>
+        <v>517963</v>
       </c>
       <c r="R7" t="n">
-        <v>7181267</v>
+        <v>7181358</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112360935</v>
+        <v>112360782</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517977</v>
+        <v>517898</v>
       </c>
       <c r="R8" t="n">
-        <v>7181358</v>
+        <v>7181203</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112360565</v>
+        <v>112359874</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517939</v>
+        <v>518071</v>
       </c>
       <c r="R9" t="n">
-        <v>7181204</v>
+        <v>7181080</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Både färska och äldre ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112360782</v>
+        <v>112360699</v>
       </c>
       <c r="B10" t="n">
         <v>56430</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517898</v>
+        <v>517871</v>
       </c>
       <c r="R10" t="n">
         <v>7181203</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1787,7 +1787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112360000</v>
+        <v>112360565</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517952</v>
+        <v>517939</v>
       </c>
       <c r="R11" t="n">
-        <v>7181173</v>
+        <v>7181204</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Både färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112360956</v>
+        <v>112360935</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518056</v>
+        <v>517977</v>
       </c>
       <c r="R12" t="n">
-        <v>7181359</v>
+        <v>7181358</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2033,10 +2033,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112382121</v>
+        <v>112375476</v>
       </c>
       <c r="B13" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2049,35 +2049,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>517844</v>
+        <v>517971</v>
       </c>
       <c r="R13" t="n">
-        <v>7181358</v>
+        <v>7181355</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2107,53 +2109,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2171,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112375371</v>
+        <v>112379312</v>
       </c>
       <c r="B14" t="n">
-        <v>77651</v>
+        <v>90235</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2183,41 +2156,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>230405</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>517859</v>
+        <v>518066</v>
       </c>
       <c r="R14" t="n">
-        <v>7181249</v>
+        <v>7181133</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2247,24 +2218,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112380266</v>
+        <v>112375515</v>
       </c>
       <c r="B15" t="n">
-        <v>89499</v>
+        <v>77651</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2298,35 +2298,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>112</v>
+        <v>230405</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518031</v>
+        <v>518198</v>
       </c>
       <c r="R15" t="n">
-        <v>7181142</v>
+        <v>7181286</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2356,53 +2358,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>13:12</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>13:12</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2420,7 +2393,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112375418</v>
+        <v>112375286</v>
       </c>
       <c r="B16" t="n">
         <v>77651</v>
@@ -2463,10 +2436,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>517913</v>
+        <v>518066</v>
       </c>
       <c r="R16" t="n">
-        <v>7181387</v>
+        <v>7181133</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2531,7 +2504,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112375286</v>
+        <v>112375371</v>
       </c>
       <c r="B17" t="n">
         <v>77651</v>
@@ -2574,10 +2547,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518066</v>
+        <v>517859</v>
       </c>
       <c r="R17" t="n">
-        <v>7181133</v>
+        <v>7181249</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2642,10 +2615,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112381644</v>
+        <v>112375418</v>
       </c>
       <c r="B18" t="n">
-        <v>89571</v>
+        <v>77651</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2658,35 +2631,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>230405</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>517965</v>
+        <v>517913</v>
       </c>
       <c r="R18" t="n">
-        <v>7181173</v>
+        <v>7181387</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2716,53 +2691,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2780,10 +2726,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112375476</v>
+        <v>112382121</v>
       </c>
       <c r="B19" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2796,37 +2742,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>517971</v>
+        <v>517844</v>
       </c>
       <c r="R19" t="n">
-        <v>7181355</v>
+        <v>7181358</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2856,24 +2800,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2891,10 +2864,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112381914</v>
+        <v>112381644</v>
       </c>
       <c r="B20" t="n">
-        <v>89549</v>
+        <v>89571</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2907,35 +2880,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>517911</v>
+        <v>517965</v>
       </c>
       <c r="R20" t="n">
-        <v>7181235</v>
+        <v>7181173</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3029,10 +3002,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112379312</v>
+        <v>112382054</v>
       </c>
       <c r="B21" t="n">
-        <v>90235</v>
+        <v>89499</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3041,39 +3014,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>112</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>518066</v>
+        <v>517831</v>
       </c>
       <c r="R21" t="n">
-        <v>7181133</v>
+        <v>7181296</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3105,7 +3078,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3115,7 +3088,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3144,12 +3117,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3167,10 +3140,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112375515</v>
+        <v>112380266</v>
       </c>
       <c r="B22" t="n">
-        <v>77651</v>
+        <v>89499</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3183,37 +3156,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>230405</v>
+        <v>112</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>518198</v>
+        <v>518031</v>
       </c>
       <c r="R22" t="n">
-        <v>7181286</v>
+        <v>7181142</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3243,24 +3214,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112382054</v>
+        <v>112381914</v>
       </c>
       <c r="B23" t="n">
-        <v>89499</v>
+        <v>89549</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3294,35 +3294,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>112</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>517831</v>
+        <v>517911</v>
       </c>
       <c r="R23" t="n">
-        <v>7181296</v>
+        <v>7181235</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3416,7 +3416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112359584</v>
+        <v>112359401</v>
       </c>
       <c r="B24" t="n">
         <v>56430</v>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>518347</v>
+        <v>518241</v>
       </c>
       <c r="R24" t="n">
         <v>7181299</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112359401</v>
+        <v>112359584</v>
       </c>
       <c r="B27" t="n">
         <v>56430</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>518241</v>
+        <v>518347</v>
       </c>
       <c r="R27" t="n">
         <v>7181299</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3908,10 +3908,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112374902</v>
+        <v>112377569</v>
       </c>
       <c r="B28" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3924,37 +3924,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>518373</v>
+        <v>518414</v>
       </c>
       <c r="R28" t="n">
-        <v>7181262</v>
+        <v>7181238</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3984,24 +3982,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4019,7 +4046,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112375543</v>
+        <v>112374338</v>
       </c>
       <c r="B29" t="n">
         <v>77651</v>
@@ -4062,10 +4089,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>518245</v>
+        <v>518237</v>
       </c>
       <c r="R29" t="n">
-        <v>7181283</v>
+        <v>7181309</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4130,7 +4157,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112374338</v>
+        <v>112375075</v>
       </c>
       <c r="B30" t="n">
         <v>77651</v>
@@ -4173,10 +4200,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>518237</v>
+        <v>518408</v>
       </c>
       <c r="R30" t="n">
-        <v>7181309</v>
+        <v>7181227</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4241,7 +4268,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112374377</v>
+        <v>112375105</v>
       </c>
       <c r="B31" t="n">
         <v>77651</v>
@@ -4284,10 +4311,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>518273</v>
+        <v>518346</v>
       </c>
       <c r="R31" t="n">
-        <v>7181305</v>
+        <v>7181224</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4352,10 +4379,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112375258</v>
+        <v>112377185</v>
       </c>
       <c r="B32" t="n">
-        <v>77651</v>
+        <v>90235</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4364,41 +4391,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>230405</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>518263</v>
+        <v>518346</v>
       </c>
       <c r="R32" t="n">
-        <v>7181219</v>
+        <v>7181224</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4428,24 +4453,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4463,10 +4517,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112377185</v>
+        <v>112374902</v>
       </c>
       <c r="B33" t="n">
-        <v>90235</v>
+        <v>77651</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4475,39 +4529,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>230405</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>518346</v>
+        <v>518373</v>
       </c>
       <c r="R33" t="n">
-        <v>7181224</v>
+        <v>7181262</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4537,53 +4593,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>11:39</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4601,10 +4628,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112377569</v>
+        <v>112375543</v>
       </c>
       <c r="B34" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4617,35 +4644,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>518414</v>
+        <v>518245</v>
       </c>
       <c r="R34" t="n">
-        <v>7181238</v>
+        <v>7181283</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4675,53 +4704,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112375105</v>
+        <v>112374546</v>
       </c>
       <c r="B35" t="n">
         <v>77651</v>
@@ -4782,10 +4782,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>518346</v>
+        <v>518355</v>
       </c>
       <c r="R35" t="n">
-        <v>7181224</v>
+        <v>7181301</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112374546</v>
+        <v>112374377</v>
       </c>
       <c r="B36" t="n">
         <v>77651</v>
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>518355</v>
+        <v>518273</v>
       </c>
       <c r="R36" t="n">
-        <v>7181301</v>
+        <v>7181305</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4961,10 +4961,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112379024</v>
+        <v>112375258</v>
       </c>
       <c r="B37" t="n">
-        <v>89571</v>
+        <v>77651</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4977,35 +4977,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>230405</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518269</v>
+        <v>518263</v>
       </c>
       <c r="R37" t="n">
-        <v>7181175</v>
+        <v>7181219</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5035,53 +5037,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5099,10 +5072,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112375075</v>
+        <v>112379024</v>
       </c>
       <c r="B38" t="n">
-        <v>77651</v>
+        <v>89571</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5115,37 +5088,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>230405</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518408</v>
+        <v>518269</v>
       </c>
       <c r="R38" t="n">
-        <v>7181227</v>
+        <v>7181175</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5175,24 +5146,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>

--- a/artfynd/A 33659-2023.xlsx
+++ b/artfynd/A 33659-2023.xlsx
@@ -1787,7 +1787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112360565</v>
+        <v>112360935</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517939</v>
+        <v>517977</v>
       </c>
       <c r="R11" t="n">
-        <v>7181204</v>
+        <v>7181358</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Både färska och äldre ringhack</t>
+          <t>Färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112360935</v>
+        <v>112360565</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517977</v>
+        <v>517939</v>
       </c>
       <c r="R12" t="n">
-        <v>7181358</v>
+        <v>7181204</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack</t>
+          <t>Både färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2504,10 +2504,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112375371</v>
+        <v>112382121</v>
       </c>
       <c r="B17" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2520,37 +2520,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>517859</v>
+        <v>517844</v>
       </c>
       <c r="R17" t="n">
-        <v>7181249</v>
+        <v>7181358</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2580,24 +2578,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2615,7 +2642,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112375418</v>
+        <v>112375371</v>
       </c>
       <c r="B18" t="n">
         <v>77651</v>
@@ -2658,10 +2685,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>517913</v>
+        <v>517859</v>
       </c>
       <c r="R18" t="n">
-        <v>7181387</v>
+        <v>7181249</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2726,10 +2753,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112382121</v>
+        <v>112375418</v>
       </c>
       <c r="B19" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2742,35 +2769,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>517844</v>
+        <v>517913</v>
       </c>
       <c r="R19" t="n">
-        <v>7181358</v>
+        <v>7181387</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2800,53 +2829,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>

--- a/artfynd/A 33659-2023.xlsx
+++ b/artfynd/A 33659-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112360600</v>
+        <v>112359874</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>517911</v>
+        <v>518071</v>
       </c>
       <c r="R2" t="n">
-        <v>7181235</v>
+        <v>7181080</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -803,7 +803,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112360956</v>
+        <v>112360782</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518056</v>
+        <v>517898</v>
       </c>
       <c r="R3" t="n">
-        <v>7181359</v>
+        <v>7181203</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,7 +926,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112359858</v>
+        <v>112360956</v>
       </c>
       <c r="B4" t="n">
         <v>56430</v>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518150</v>
+        <v>518056</v>
       </c>
       <c r="R4" t="n">
-        <v>7181081</v>
+        <v>7181359</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112360000</v>
+        <v>112360935</v>
       </c>
       <c r="B6" t="n">
         <v>56430</v>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>517952</v>
+        <v>517977</v>
       </c>
       <c r="R6" t="n">
-        <v>7181173</v>
+        <v>7181358</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112360882</v>
+        <v>112360565</v>
       </c>
       <c r="B7" t="n">
         <v>56430</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>517963</v>
+        <v>517939</v>
       </c>
       <c r="R7" t="n">
-        <v>7181358</v>
+        <v>7181204</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Både färska och äldre ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112360782</v>
+        <v>112360000</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517898</v>
+        <v>517952</v>
       </c>
       <c r="R8" t="n">
-        <v>7181203</v>
+        <v>7181173</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Gamla ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112359874</v>
+        <v>112359858</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518071</v>
+        <v>518150</v>
       </c>
       <c r="R9" t="n">
-        <v>7181080</v>
+        <v>7181081</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112360699</v>
+        <v>112360882</v>
       </c>
       <c r="B10" t="n">
         <v>56430</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517871</v>
+        <v>517963</v>
       </c>
       <c r="R10" t="n">
-        <v>7181203</v>
+        <v>7181358</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Gamla ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1787,7 +1787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112360935</v>
+        <v>112360699</v>
       </c>
       <c r="B11" t="n">
         <v>56430</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517977</v>
+        <v>517871</v>
       </c>
       <c r="R11" t="n">
-        <v>7181358</v>
+        <v>7181203</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112360565</v>
+        <v>112360600</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517939</v>
+        <v>517911</v>
       </c>
       <c r="R12" t="n">
-        <v>7181204</v>
+        <v>7181235</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Både färska och äldre ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2033,10 +2033,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112375476</v>
+        <v>112381644</v>
       </c>
       <c r="B13" t="n">
-        <v>77651</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2049,37 +2049,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>230405</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>517971</v>
+        <v>517965</v>
       </c>
       <c r="R13" t="n">
-        <v>7181355</v>
+        <v>7181173</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2109,24 +2107,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2171,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112379312</v>
+        <v>112375286</v>
       </c>
       <c r="B14" t="n">
-        <v>90235</v>
+        <v>77651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2156,29 +2183,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>230405</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
@@ -2218,53 +2247,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112375515</v>
+        <v>112382054</v>
       </c>
       <c r="B15" t="n">
-        <v>77651</v>
+        <v>89499</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2298,37 +2298,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>230405</v>
+        <v>112</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518198</v>
+        <v>517831</v>
       </c>
       <c r="R15" t="n">
-        <v>7181286</v>
+        <v>7181296</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2358,24 +2356,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2393,10 +2420,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112375286</v>
+        <v>112381914</v>
       </c>
       <c r="B16" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2409,37 +2436,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518066</v>
+        <v>517911</v>
       </c>
       <c r="R16" t="n">
-        <v>7181133</v>
+        <v>7181235</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2469,24 +2494,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2504,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112382121</v>
+        <v>112375371</v>
       </c>
       <c r="B17" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2520,35 +2574,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>517844</v>
+        <v>517859</v>
       </c>
       <c r="R17" t="n">
-        <v>7181358</v>
+        <v>7181249</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2578,53 +2634,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>13:56</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2642,10 +2669,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112375371</v>
+        <v>112380266</v>
       </c>
       <c r="B18" t="n">
-        <v>77651</v>
+        <v>89499</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2658,37 +2685,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>230405</v>
+        <v>112</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>517859</v>
+        <v>518031</v>
       </c>
       <c r="R18" t="n">
-        <v>7181249</v>
+        <v>7181142</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2718,24 +2743,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2864,10 +2918,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112381644</v>
+        <v>112382121</v>
       </c>
       <c r="B20" t="n">
-        <v>89571</v>
+        <v>89549</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2880,35 +2934,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>517965</v>
+        <v>517844</v>
       </c>
       <c r="R20" t="n">
-        <v>7181173</v>
+        <v>7181358</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2940,7 +2994,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2950,7 +3004,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3002,10 +3056,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112382054</v>
+        <v>112379312</v>
       </c>
       <c r="B21" t="n">
-        <v>89499</v>
+        <v>90235</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3014,39 +3068,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>112</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>517831</v>
+        <v>518066</v>
       </c>
       <c r="R21" t="n">
-        <v>7181296</v>
+        <v>7181133</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3078,7 +3132,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3088,7 +3142,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3117,12 +3171,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3140,10 +3194,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112380266</v>
+        <v>112375476</v>
       </c>
       <c r="B22" t="n">
-        <v>89499</v>
+        <v>77651</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3156,35 +3210,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>112</v>
+        <v>230405</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>518031</v>
+        <v>517971</v>
       </c>
       <c r="R22" t="n">
-        <v>7181142</v>
+        <v>7181355</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,53 +3270,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>13:12</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>13:12</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3278,10 +3305,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112381914</v>
+        <v>112375515</v>
       </c>
       <c r="B23" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3294,35 +3321,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Väster-Rissjön (Väster-Rissjön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>517911</v>
+        <v>518198</v>
       </c>
       <c r="R23" t="n">
-        <v>7181235</v>
+        <v>7181286</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3352,53 +3381,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112359677</v>
+        <v>112359584</v>
       </c>
       <c r="B25" t="n">
         <v>56430</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>518387</v>
+        <v>518347</v>
       </c>
       <c r="R25" t="n">
-        <v>7181238</v>
+        <v>7181299</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Äldre ringhack</t>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3662,7 +3662,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112359774</v>
+        <v>112359677</v>
       </c>
       <c r="B26" t="n">
         <v>56430</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>518269</v>
+        <v>518387</v>
       </c>
       <c r="R26" t="n">
-        <v>7181175</v>
+        <v>7181238</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112359584</v>
+        <v>112359774</v>
       </c>
       <c r="B27" t="n">
         <v>56430</v>
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>518347</v>
+        <v>518269</v>
       </c>
       <c r="R27" t="n">
-        <v>7181299</v>
+        <v>7181175</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Färska ringhack</t>
+          <t>Äldre ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3908,10 +3908,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112377569</v>
+        <v>112374377</v>
       </c>
       <c r="B28" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3924,35 +3924,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
+          <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>518414</v>
+        <v>518273</v>
       </c>
       <c r="R28" t="n">
-        <v>7181238</v>
+        <v>7181305</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3982,53 +3984,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4046,7 +4019,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112374338</v>
+        <v>112374902</v>
       </c>
       <c r="B29" t="n">
         <v>77651</v>
@@ -4089,10 +4062,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>518237</v>
+        <v>518373</v>
       </c>
       <c r="R29" t="n">
-        <v>7181309</v>
+        <v>7181262</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4157,7 +4130,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112375075</v>
+        <v>112375543</v>
       </c>
       <c r="B30" t="n">
         <v>77651</v>
@@ -4200,10 +4173,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>518408</v>
+        <v>518245</v>
       </c>
       <c r="R30" t="n">
-        <v>7181227</v>
+        <v>7181283</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4268,7 +4241,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112375105</v>
+        <v>112375258</v>
       </c>
       <c r="B31" t="n">
         <v>77651</v>
@@ -4311,10 +4284,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>518346</v>
+        <v>518263</v>
       </c>
       <c r="R31" t="n">
-        <v>7181224</v>
+        <v>7181219</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4517,7 +4490,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112374902</v>
+        <v>112374338</v>
       </c>
       <c r="B33" t="n">
         <v>77651</v>
@@ -4560,10 +4533,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>518373</v>
+        <v>518237</v>
       </c>
       <c r="R33" t="n">
-        <v>7181262</v>
+        <v>7181309</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4628,7 +4601,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112375543</v>
+        <v>112375105</v>
       </c>
       <c r="B34" t="n">
         <v>77651</v>
@@ -4671,10 +4644,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>518245</v>
+        <v>518346</v>
       </c>
       <c r="R34" t="n">
-        <v>7181283</v>
+        <v>7181224</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4850,10 +4823,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112374377</v>
+        <v>112379024</v>
       </c>
       <c r="B36" t="n">
-        <v>77651</v>
+        <v>89571</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4866,37 +4839,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>230405</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Väster-Rissön, Ås lm</t>
+          <t>Väster-Rissön (Väster-Rissön), Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>518273</v>
+        <v>518269</v>
       </c>
       <c r="R36" t="n">
-        <v>7181305</v>
+        <v>7181175</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4926,24 +4897,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112375258</v>
+        <v>112375075</v>
       </c>
       <c r="B37" t="n">
         <v>77651</v>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518263</v>
+        <v>518408</v>
       </c>
       <c r="R37" t="n">
-        <v>7181219</v>
+        <v>7181227</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112379024</v>
+        <v>112377569</v>
       </c>
       <c r="B38" t="n">
-        <v>89571</v>
+        <v>89549</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5088,21 +5088,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518269</v>
+        <v>518414</v>
       </c>
       <c r="R38" t="n">
-        <v>7181175</v>
+        <v>7181238</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
